--- a/Loan amortization schedule.xlsx
+++ b/Loan amortization schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{8D295065-795B-4BEA-8DD7-B59A27218DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF619F2-35B2-4873-B306-163AE986555A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,6 @@
     <definedName name="TotalInterest" localSheetId="0">SUM(PaymentSchedule3[Interest])</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1701,7 +1700,7 @@
   <dimension ref="B1:L100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7261,15 +7260,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -7287,6 +7277,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7311,14 +7310,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC9DC247-DA4C-48CA-8D72-4AC806AFE8E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D81D207-CE89-42AF-92BD-9D5ABAF84903}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7330,6 +7321,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC9DC247-DA4C-48CA-8D72-4AC806AFE8E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>